--- a/TDStore/Cộng tác viên.xlsx
+++ b/TDStore/Cộng tác viên.xlsx
@@ -1,34 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DB1426-886B-48F1-B306-9C2CC7B2E8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D97B5B-FC3A-484F-89A8-36D1208C029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{10805C3F-A2A0-4E47-A499-9AE43642C7A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10805C3F-A2A0-4E47-A499-9AE43642C7A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Mã Hàng</t>
   </si>
@@ -58,14 +70,27 @@
   </si>
   <si>
     <t>K3</t>
+  </si>
+  <si>
+    <t>USBC_6IN1</t>
+  </si>
+  <si>
+    <t>USB_C3in1</t>
+  </si>
+  <si>
+    <t>USB64</t>
+  </si>
+  <si>
+    <t>USB 2 đầu 64GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -137,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -146,12 +171,33 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -410,6 +456,251 @@
             <v>SAC_YOGA_2C</v>
           </cell>
           <cell r="D31" t="str">
+            <v>Sạc YOGA 2 cổng C</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Tổng hợp tồn kho cũ"/>
+      <sheetName val="Danh mục hàng hóa"/>
+      <sheetName val="Nhập hàng"/>
+      <sheetName val="Bán hàng"/>
+      <sheetName val="TỔNG HỢP NHẬP XUẤT TỒN"/>
+      <sheetName val="Các khoản chi phí"/>
+      <sheetName val="Lãi-Lỗ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>USB_C</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>USB</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>M24</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>Chuột M24</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>IBM</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Chuột IBM</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>M1</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Chuột lenovo bluetooth M1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>USB_C3in1</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>USB C 3in1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>M90</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>Chuột thinkpad</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>TB</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Trải bàn xiaomi</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>YOGA</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>Sạc YOGA</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>TS32A</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Loa TS32A</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>GEN1</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Sạc gen 1 có hộp</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>SAC_C</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>Sạc lenovo to type C</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>K3</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Loa K3 Pro</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>SAC_GEN2_KH</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>Sạc Thinkplus gen 2 k hộp</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>DAY_SLIM</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>Dây type C to slim</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>SAC_DELL</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>Sạc Dell</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>SAC_GEN2D_NEW</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>Sạc Thinkplus gen 2 đen new</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>SAC_GEN2.5D_NEW</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Sạc Thinkplus gen 2 Pro đen new</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>TUI_SOCK_14IN</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Túi chống sốc màu đen Xiaoxin 14</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>BALO_THINKBOOK</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Balo thinkbook trắng</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>SAC_GEN2T_CH</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>Sạc Thinkplus gen 2 có hộp trắng</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>SAC_GEN2T_NEW</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>Sạc Thinkplus trắng gen 2 new</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>SAC_GEN1_NEW</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Sạc gan 1 đen new</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>USBC_6IN1</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>USB C 6in1</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Sac_lenovo_C_REAL</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Sạc lenovo to type C bóc máy</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>TUI_SOCK_15.6IN</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>CHUOT_THINKLIFE</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>Chuột Thinklife</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>SAC_YOGA_2C</v>
+          </cell>
+          <cell r="D33" t="str">
             <v>Sạc YOGA 2 cổng C</v>
           </cell>
         </row>
@@ -724,14 +1015,14 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="17" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
@@ -842,26 +1133,76 @@
         <v>39351.776458332897</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>VLOOKUP(A5,'[2]Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <v>USB C 6in1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>212845.66666666701</v>
+      </c>
+      <c r="D5" s="7">
+        <f>C5+C5*0.3</f>
+        <v>276699.36666666711</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="7">
+        <v>500000</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G7" si="0">F5-D5</f>
+        <v>223300.63333333289</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>VLOOKUP(A6,'[2]Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <v>USB C 3in1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>92692.5</v>
+      </c>
+      <c r="D6" s="7">
+        <f>C6+C6*0.3</f>
+        <v>120500.25</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4">
+        <v>250000</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>129499.75</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>112000</v>
+      </c>
+      <c r="D7" s="7">
+        <f>C7+C7*0.3</f>
+        <v>145600</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4">
+        <v>250000</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>104400</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
@@ -886,12 +1227,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A5">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TDStore/Cộng tác viên.xlsx
+++ b/TDStore/Cộng tác viên.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D97B5B-FC3A-484F-89A8-36D1208C029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A39ABE-5441-45EA-97B4-3FABCC21F5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10805C3F-A2A0-4E47-A499-9AE43642C7A5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Mã Hàng</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>USB 2 đầu 64GB</t>
+  </si>
+  <si>
+    <t>TUI_SOCK_15.6IN</t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -171,13 +174,23 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1015,7 +1028,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1077,7 @@
         <v>98822.674109516214</v>
       </c>
       <c r="D2" s="7">
-        <f>C2+C2*0.3</f>
+        <f t="shared" ref="D2:D8" si="0">C2+C2*0.3</f>
         <v>128469.47634237108</v>
       </c>
       <c r="E2" s="7">
@@ -1091,7 +1104,7 @@
         <v>133979.06851346343</v>
       </c>
       <c r="D3" s="7">
-        <f>C3+C3*0.3</f>
+        <f t="shared" si="0"/>
         <v>174172.78906750245</v>
       </c>
       <c r="E3" s="7">
@@ -1118,7 +1131,7 @@
         <v>107421.710416667</v>
       </c>
       <c r="D4" s="7">
-        <f>C4+C4*0.3</f>
+        <f t="shared" si="0"/>
         <v>139648.2235416671</v>
       </c>
       <c r="E4" s="7">
@@ -1145,7 +1158,7 @@
         <v>212845.66666666701</v>
       </c>
       <c r="D5" s="7">
-        <f>C5+C5*0.3</f>
+        <f t="shared" si="0"/>
         <v>276699.36666666711</v>
       </c>
       <c r="E5" s="4"/>
@@ -1153,7 +1166,7 @@
         <v>500000</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G7" si="0">F5-D5</f>
+        <f t="shared" ref="G5:G8" si="1">F5-D5</f>
         <v>223300.63333333289</v>
       </c>
     </row>
@@ -1169,7 +1182,7 @@
         <v>92692.5</v>
       </c>
       <c r="D6" s="7">
-        <f>C6+C6*0.3</f>
+        <f t="shared" si="0"/>
         <v>120500.25</v>
       </c>
       <c r="E6" s="4"/>
@@ -1177,7 +1190,7 @@
         <v>250000</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129499.75</v>
       </c>
     </row>
@@ -1192,7 +1205,7 @@
         <v>112000</v>
       </c>
       <c r="D7" s="7">
-        <f>C7+C7*0.3</f>
+        <f t="shared" si="0"/>
         <v>145600</v>
       </c>
       <c r="E7" s="4"/>
@@ -1200,16 +1213,33 @@
         <v>250000</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>104400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>VLOOKUP(A8,'[2]Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>120511.18804735476</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>104400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+        <v>156664.54446156119</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="4">
+        <v>250000</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>93335.455538438808</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
@@ -1227,18 +1257,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A5">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TDStore/Cộng tác viên.xlsx
+++ b/TDStore/Cộng tác viên.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A39ABE-5441-45EA-97B4-3FABCC21F5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18664D85-5D6F-40CB-8D84-8BC4463DAD05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10805C3F-A2A0-4E47-A499-9AE43642C7A5}"/>
   </bookViews>
@@ -29,10 +29,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -165,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -175,6 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -255,11 +256,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Tổng hợp tồn kho cũ"/>
       <sheetName val="Danh mục hàng hóa"/>
@@ -484,11 +482,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Tổng hợp tồn kho cũ"/>
       <sheetName val="Danh mục hàng hóa"/>
@@ -1028,7 +1023,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1156,7 @@
         <f t="shared" si="0"/>
         <v>276699.36666666711</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7">
         <v>500000</v>
       </c>
@@ -1185,8 +1180,8 @@
         <f t="shared" si="0"/>
         <v>120500.25</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
         <v>250000</v>
       </c>
       <c r="G6" s="7">
@@ -1195,24 +1190,24 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>112000</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>145600</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
         <v>250000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>104400</v>
       </c>
@@ -1232,11 +1227,11 @@
         <f t="shared" si="0"/>
         <v>156664.54446156119</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>250000</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="7">
         <f t="shared" si="1"/>
         <v>93335.455538438808</v>
       </c>

--- a/TDStore/Cộng tác viên.xlsx
+++ b/TDStore/Cộng tác viên.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18664D85-5D6F-40CB-8D84-8BC4463DAD05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B81DF-46C2-4006-B12C-D523B910E892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10805C3F-A2A0-4E47-A499-9AE43642C7A5}"/>
   </bookViews>
@@ -29,10 +29,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tổng hợp tồn kho cũ"/>
@@ -482,7 +482,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tổng hợp tồn kho cũ"/>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TDStore/Cộng tác viên.xlsx
+++ b/TDStore/Cộng tác viên.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B81DF-46C2-4006-B12C-D523B910E892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673C4BA8-4EFF-46FF-89C8-273AA01B3198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10805C3F-A2A0-4E47-A499-9AE43642C7A5}"/>
   </bookViews>
@@ -24,17 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -51,18 +40,12 @@
     <t>Giá vốn</t>
   </si>
   <si>
-    <t>Giá ctv</t>
-  </si>
-  <si>
     <t>giá đang bán</t>
   </si>
   <si>
     <t>M24</t>
   </si>
   <si>
-    <t>Lợi nhuận ctv</t>
-  </si>
-  <si>
     <t>Lợi nhuận gốc</t>
   </si>
   <si>
@@ -85,6 +68,12 @@
   </si>
   <si>
     <t>TUI_SOCK_15.6IN</t>
+  </si>
+  <si>
+    <t>Giá Sỉ</t>
+  </si>
+  <si>
+    <t>Lợi nhuận</t>
   </si>
 </sst>
 </file>
@@ -1023,14 +1012,14 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B1" sqref="B1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="17" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
@@ -1048,21 +1037,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>VLOOKUP(A2,'[1]Danh mục hàng hóa'!$C$7:$D$31,2,0)</f>
@@ -1072,7 +1061,7 @@
         <v>98822.674109516214</v>
       </c>
       <c r="D2" s="7">
-        <f t="shared" ref="D2:D8" si="0">C2+C2*0.3</f>
+        <f>C2+C2*0.3</f>
         <v>128469.47634237108</v>
       </c>
       <c r="E2" s="7">
@@ -1089,7 +1078,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>VLOOKUP(A3,'[1]Danh mục hàng hóa'!$C$7:$D$31,2,0)</f>
@@ -1099,7 +1088,7 @@
         <v>133979.06851346343</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:D8" si="0">C3+C3*0.3</f>
         <v>174172.78906750245</v>
       </c>
       <c r="E3" s="7">
@@ -1116,7 +1105,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>VLOOKUP(A4,'[1]Danh mục hàng hóa'!$C$7:$D$31,2,0)</f>
@@ -1143,7 +1132,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>VLOOKUP(A5,'[2]Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
@@ -1167,7 +1156,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>VLOOKUP(A6,'[2]Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
@@ -1191,10 +1180,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7">
         <v>112000</v>
@@ -1214,7 +1203,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>VLOOKUP(A8,'[2]Danh mục hàng hóa'!$C$7:$D$33,2,0)</f>
